--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb2-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb2-Epha4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H2">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I2">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J2">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.588395333333334</v>
+        <v>6.458467</v>
       </c>
       <c r="N2">
-        <v>19.765186</v>
+        <v>19.375401</v>
       </c>
       <c r="O2">
-        <v>0.6088932199877385</v>
+        <v>0.6832669775810905</v>
       </c>
       <c r="P2">
-        <v>0.6088932199877384</v>
+        <v>0.6832669775810902</v>
       </c>
       <c r="Q2">
-        <v>210.2381262045447</v>
+        <v>241.8487175374783</v>
       </c>
       <c r="R2">
-        <v>1892.143135840902</v>
+        <v>2176.638457837305</v>
       </c>
       <c r="S2">
-        <v>0.3531447781703994</v>
+        <v>0.4119584502367103</v>
       </c>
       <c r="T2">
-        <v>0.3531447781703994</v>
+        <v>0.4119584502367103</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H3">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I3">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J3">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.350066</v>
       </c>
       <c r="O3">
-        <v>0.2264286991208885</v>
+        <v>0.2591975970376838</v>
       </c>
       <c r="P3">
-        <v>0.2264286991208884</v>
+        <v>0.2591975970376837</v>
       </c>
       <c r="Q3">
-        <v>78.18110607811801</v>
+        <v>91.74540624557</v>
       </c>
       <c r="R3">
-        <v>703.6299547030619</v>
+        <v>825.70865621013</v>
       </c>
       <c r="S3">
-        <v>0.1313237035617977</v>
+        <v>0.1562766003396542</v>
       </c>
       <c r="T3">
-        <v>0.1313237035617977</v>
+        <v>0.1562766003396542</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H4">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I4">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J4">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02679433333333334</v>
+        <v>0.02679433333333333</v>
       </c>
       <c r="N4">
-        <v>0.08038300000000001</v>
+        <v>0.080383</v>
       </c>
       <c r="O4">
-        <v>0.002476306759889555</v>
+        <v>0.00283467936786964</v>
       </c>
       <c r="P4">
-        <v>0.002476306759889555</v>
+        <v>0.002834679367869639</v>
       </c>
       <c r="Q4">
-        <v>0.8550170637756668</v>
+        <v>1.003361192979444</v>
       </c>
       <c r="R4">
-        <v>7.695153573981001</v>
+        <v>9.030250736814999</v>
       </c>
       <c r="S4">
-        <v>0.001436203874007116</v>
+        <v>0.00170909784552988</v>
       </c>
       <c r="T4">
-        <v>0.001436203874007116</v>
+        <v>0.00170909784552988</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H5">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I5">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J5">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.706050333333333</v>
+        <v>0.4704593333333333</v>
       </c>
       <c r="N5">
-        <v>5.118151</v>
+        <v>1.411378</v>
       </c>
       <c r="O5">
-        <v>0.157671546464246</v>
+        <v>0.04977176886736147</v>
       </c>
       <c r="P5">
-        <v>0.1576715464642459</v>
+        <v>0.04977176886736145</v>
       </c>
       <c r="Q5">
-        <v>54.44069566923967</v>
+        <v>17.61718166558778</v>
       </c>
       <c r="R5">
-        <v>489.966261023157</v>
+        <v>158.55463499029</v>
       </c>
       <c r="S5">
-        <v>0.09144605568283586</v>
+        <v>0.0300086224578365</v>
       </c>
       <c r="T5">
-        <v>0.09144605568283586</v>
+        <v>0.0300086224578365</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.910369</v>
+        <v>37.44676833333333</v>
       </c>
       <c r="H6">
-        <v>95.73110699999999</v>
+        <v>112.340305</v>
       </c>
       <c r="I6">
-        <v>0.5799781744613789</v>
+        <v>0.6029245723174422</v>
       </c>
       <c r="J6">
-        <v>0.579978174461379</v>
+        <v>0.6029245723174423</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,37 +815,37 @@
         <v>0.139771</v>
       </c>
       <c r="O6">
-        <v>0.004305834220376484</v>
+        <v>0.004928977145994893</v>
       </c>
       <c r="P6">
-        <v>0.004305834220376484</v>
+        <v>0.004928977145994892</v>
       </c>
       <c r="Q6">
-        <v>1.486714728499667</v>
+        <v>1.744657418906111</v>
       </c>
       <c r="R6">
-        <v>13.380432556497</v>
+        <v>15.701916770155</v>
       </c>
       <c r="S6">
-        <v>0.002497289870667288</v>
+        <v>0.002971801437711418</v>
       </c>
       <c r="T6">
-        <v>0.002497289870667288</v>
+        <v>0.002971801437711418</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
         <v>3</v>
       </c>
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.910369</v>
+        <v>11.420477</v>
       </c>
       <c r="H7">
-        <v>95.73110699999999</v>
+        <v>34.261431</v>
       </c>
       <c r="I7">
-        <v>0.5799781744613789</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J7">
-        <v>0.579978174461379</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.002428</v>
+        <v>6.458467</v>
       </c>
       <c r="N7">
-        <v>0.007284000000000001</v>
+        <v>19.375401</v>
       </c>
       <c r="O7">
-        <v>0.0002243934468610964</v>
+        <v>0.6832669775810905</v>
       </c>
       <c r="P7">
-        <v>0.0002243934468610964</v>
+        <v>0.6832669775810902</v>
       </c>
       <c r="Q7">
-        <v>0.07747837593199999</v>
+        <v>73.75877382875899</v>
       </c>
       <c r="R7">
-        <v>0.697305383388</v>
+        <v>663.828964458831</v>
       </c>
       <c r="S7">
-        <v>0.0001301433016715951</v>
+        <v>0.1256386656387659</v>
       </c>
       <c r="T7">
-        <v>0.0001301433016715952</v>
+        <v>0.1256386656387659</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>34.261431</v>
       </c>
       <c r="I8">
-        <v>0.2075697527013293</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J8">
-        <v>0.2075697527013294</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.588395333333334</v>
+        <v>2.450022</v>
       </c>
       <c r="N8">
-        <v>19.765186</v>
+        <v>7.350066</v>
       </c>
       <c r="O8">
-        <v>0.6088932199877385</v>
+        <v>0.2591975970376838</v>
       </c>
       <c r="P8">
-        <v>0.6088932199877384</v>
+        <v>0.2591975970376837</v>
       </c>
       <c r="Q8">
-        <v>75.24261737124067</v>
+        <v>27.980419900494</v>
       </c>
       <c r="R8">
-        <v>677.1835563411661</v>
+        <v>251.823779104446</v>
       </c>
       <c r="S8">
-        <v>0.126387815094371</v>
+        <v>0.04766107729057385</v>
       </c>
       <c r="T8">
-        <v>0.126387815094371</v>
+        <v>0.04766107729057384</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>34.261431</v>
       </c>
       <c r="I9">
-        <v>0.2075697527013293</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J9">
-        <v>0.2075697527013294</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>2.450022</v>
+        <v>0.02679433333333333</v>
       </c>
       <c r="N9">
-        <v>7.350066</v>
+        <v>0.080383</v>
       </c>
       <c r="O9">
-        <v>0.2264286991208885</v>
+        <v>0.00283467936786964</v>
       </c>
       <c r="P9">
-        <v>0.2264286991208884</v>
+        <v>0.002834679367869639</v>
       </c>
       <c r="Q9">
-        <v>27.980419900494</v>
+        <v>0.3060040675636667</v>
       </c>
       <c r="R9">
-        <v>251.823779104446</v>
+        <v>2.754036608073</v>
       </c>
       <c r="S9">
-        <v>0.04699974908100653</v>
+        <v>0.0005212389080381316</v>
       </c>
       <c r="T9">
-        <v>0.04699974908100653</v>
+        <v>0.0005212389080381315</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>34.261431</v>
       </c>
       <c r="I10">
-        <v>0.2075697527013293</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J10">
-        <v>0.2075697527013294</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.02679433333333334</v>
+        <v>0.4704593333333333</v>
       </c>
       <c r="N10">
-        <v>0.08038300000000001</v>
+        <v>1.411378</v>
       </c>
       <c r="O10">
-        <v>0.002476306759889555</v>
+        <v>0.04977176886736147</v>
       </c>
       <c r="P10">
-        <v>0.002476306759889555</v>
+        <v>0.04977176886736145</v>
       </c>
       <c r="Q10">
-        <v>0.3060040675636667</v>
+        <v>5.372869995768666</v>
       </c>
       <c r="R10">
-        <v>2.754036608073001</v>
+        <v>48.355829961918</v>
       </c>
       <c r="S10">
-        <v>0.0005140063817629049</v>
+        <v>0.009151998899631043</v>
       </c>
       <c r="T10">
-        <v>0.000514006381762905</v>
+        <v>0.00915199889963104</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>34.261431</v>
       </c>
       <c r="I11">
-        <v>0.2075697527013293</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="J11">
-        <v>0.2075697527013294</v>
+        <v>0.1838793176915316</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>1.706050333333333</v>
+        <v>0.04659033333333334</v>
       </c>
       <c r="N11">
-        <v>5.118151</v>
+        <v>0.139771</v>
       </c>
       <c r="O11">
-        <v>0.157671546464246</v>
+        <v>0.004928977145994893</v>
       </c>
       <c r="P11">
-        <v>0.1576715464642459</v>
+        <v>0.004928977145994892</v>
       </c>
       <c r="Q11">
-        <v>19.48390859267567</v>
+        <v>0.5320838302556667</v>
       </c>
       <c r="R11">
-        <v>175.355177334081</v>
+        <v>4.788754472301</v>
       </c>
       <c r="S11">
-        <v>0.03272784390761969</v>
+        <v>0.0009063369545226938</v>
       </c>
       <c r="T11">
-        <v>0.03272784390761969</v>
+        <v>0.0009063369545226935</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,61 +1163,61 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.420477</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H12">
-        <v>34.261431</v>
+        <v>3.733837</v>
       </c>
       <c r="I12">
-        <v>0.2075697527013293</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J12">
-        <v>0.2075697527013294</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.04659033333333334</v>
+        <v>6.458467</v>
       </c>
       <c r="N12">
-        <v>0.139771</v>
+        <v>19.375401</v>
       </c>
       <c r="O12">
-        <v>0.004305834220376484</v>
+        <v>0.6832669775810905</v>
       </c>
       <c r="P12">
-        <v>0.004305834220376484</v>
+        <v>0.6832669775810902</v>
       </c>
       <c r="Q12">
-        <v>0.5320838302556667</v>
+        <v>8.038287682626333</v>
       </c>
       <c r="R12">
-        <v>4.788754472301</v>
+        <v>72.34458914363699</v>
       </c>
       <c r="S12">
-        <v>0.000893760944296468</v>
+        <v>0.01369219804020016</v>
       </c>
       <c r="T12">
-        <v>0.0008937609442964681</v>
+        <v>0.01369219804020015</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.420477</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H13">
-        <v>34.261431</v>
+        <v>3.733837</v>
       </c>
       <c r="I13">
-        <v>0.2075697527013293</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J13">
-        <v>0.2075697527013294</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.002428</v>
+        <v>2.450022</v>
       </c>
       <c r="N13">
-        <v>0.007284000000000001</v>
+        <v>7.350066</v>
       </c>
       <c r="O13">
-        <v>0.0002243934468610964</v>
+        <v>0.2591975970376838</v>
       </c>
       <c r="P13">
-        <v>0.0002243934468610964</v>
+        <v>0.2591975970376837</v>
       </c>
       <c r="Q13">
-        <v>0.027728918156</v>
+        <v>3.049327598138</v>
       </c>
       <c r="R13">
-        <v>0.249560263404</v>
+        <v>27.443948383242</v>
       </c>
       <c r="S13">
-        <v>4.657729227275667E-05</v>
+        <v>0.005194140718973601</v>
       </c>
       <c r="T13">
-        <v>4.657729227275667E-05</v>
+        <v>0.005194140718973598</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6836493333333333</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H14">
-        <v>2.050948</v>
+        <v>3.733837</v>
       </c>
       <c r="I14">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J14">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>6.588395333333334</v>
+        <v>0.02679433333333333</v>
       </c>
       <c r="N14">
-        <v>19.765186</v>
+        <v>0.080383</v>
       </c>
       <c r="O14">
-        <v>0.6088932199877385</v>
+        <v>0.00283467936786964</v>
       </c>
       <c r="P14">
-        <v>0.6088932199877384</v>
+        <v>0.002834679367869639</v>
       </c>
       <c r="Q14">
-        <v>4.504152077369778</v>
+        <v>0.0333485577301111</v>
       </c>
       <c r="R14">
-        <v>40.537368696328</v>
+        <v>0.300137019571</v>
       </c>
       <c r="S14">
-        <v>0.007565791300199048</v>
+        <v>5.680501554860254E-05</v>
       </c>
       <c r="T14">
-        <v>0.007565791300199048</v>
+        <v>5.680501554860253E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6836493333333333</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H15">
-        <v>2.050948</v>
+        <v>3.733837</v>
       </c>
       <c r="I15">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J15">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.450022</v>
+        <v>0.4704593333333333</v>
       </c>
       <c r="N15">
-        <v>7.350066</v>
+        <v>1.411378</v>
       </c>
       <c r="O15">
-        <v>0.2264286991208885</v>
+        <v>0.04977176886736147</v>
       </c>
       <c r="P15">
-        <v>0.2264286991208884</v>
+        <v>0.04977176886736145</v>
       </c>
       <c r="Q15">
-        <v>1.674955906952</v>
+        <v>0.5855394885984444</v>
       </c>
       <c r="R15">
-        <v>15.074603162568</v>
+        <v>5.269855397386</v>
       </c>
       <c r="S15">
-        <v>0.002813485559846936</v>
+        <v>0.0009973918519457542</v>
       </c>
       <c r="T15">
-        <v>0.002813485559846936</v>
+        <v>0.000997391851945754</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6836493333333333</v>
+        <v>1.244612333333333</v>
       </c>
       <c r="H16">
-        <v>2.050948</v>
+        <v>3.733837</v>
       </c>
       <c r="I16">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="J16">
-        <v>0.01242548126969028</v>
+        <v>0.02003930892236799</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,33 +1429,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.02679433333333334</v>
+        <v>0.04659033333333334</v>
       </c>
       <c r="N16">
-        <v>0.08038300000000001</v>
+        <v>0.139771</v>
       </c>
       <c r="O16">
-        <v>0.002476306759889555</v>
+        <v>0.004928977145994893</v>
       </c>
       <c r="P16">
-        <v>0.002476306759889555</v>
+        <v>0.004928977145994892</v>
       </c>
       <c r="Q16">
-        <v>0.01831792812044445</v>
+        <v>0.05798690348077778</v>
       </c>
       <c r="R16">
-        <v>0.164861353084</v>
+        <v>0.521882131327</v>
       </c>
       <c r="S16">
-        <v>3.076930326301509E-05</v>
+        <v>9.87732956998834E-05</v>
       </c>
       <c r="T16">
-        <v>3.076930326301509E-05</v>
+        <v>9.877329569988336E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6836493333333333</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H17">
-        <v>2.050948</v>
+        <v>30.115763</v>
       </c>
       <c r="I17">
-        <v>0.01242548126969028</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J17">
-        <v>0.01242548126969028</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,33 +1491,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.706050333333333</v>
+        <v>6.458467</v>
       </c>
       <c r="N17">
-        <v>5.118151</v>
+        <v>19.375401</v>
       </c>
       <c r="O17">
-        <v>0.157671546464246</v>
+        <v>0.6832669775810905</v>
       </c>
       <c r="P17">
-        <v>0.1576715464642459</v>
+        <v>0.6832669775810902</v>
       </c>
       <c r="Q17">
-        <v>1.166340173016444</v>
+        <v>64.83388717177367</v>
       </c>
       <c r="R17">
-        <v>10.497061557148</v>
+        <v>583.504984545963</v>
       </c>
       <c r="S17">
-        <v>0.001959144847354589</v>
+        <v>0.1104362593031598</v>
       </c>
       <c r="T17">
-        <v>0.001959144847354589</v>
+        <v>0.1104362593031598</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,61 +1535,61 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.6836493333333333</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H18">
-        <v>2.050948</v>
+        <v>30.115763</v>
       </c>
       <c r="I18">
-        <v>0.01242548126969028</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J18">
-        <v>0.01242548126969028</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.04659033333333334</v>
+        <v>2.450022</v>
       </c>
       <c r="N18">
-        <v>0.139771</v>
+        <v>7.350066</v>
       </c>
       <c r="O18">
-        <v>0.004305834220376484</v>
+        <v>0.2591975970376838</v>
       </c>
       <c r="P18">
-        <v>0.004305834220376484</v>
+        <v>0.2591975970376837</v>
       </c>
       <c r="Q18">
-        <v>0.03185145032311111</v>
+        <v>24.594760632262</v>
       </c>
       <c r="R18">
-        <v>0.286663052908</v>
+        <v>221.352845690358</v>
       </c>
       <c r="S18">
-        <v>5.350206245567946E-05</v>
+        <v>0.04189403845996988</v>
       </c>
       <c r="T18">
-        <v>5.350206245567947E-05</v>
+        <v>0.04189403845996986</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19">
         <v>3</v>
       </c>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.6836493333333333</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H19">
-        <v>2.050948</v>
+        <v>30.115763</v>
       </c>
       <c r="I19">
-        <v>0.01242548126969028</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J19">
-        <v>0.01242548126969028</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1615,28 +1615,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.002428</v>
+        <v>0.02679433333333333</v>
       </c>
       <c r="N19">
-        <v>0.007284000000000001</v>
+        <v>0.080383</v>
       </c>
       <c r="O19">
-        <v>0.0002243934468610964</v>
+        <v>0.00283467936786964</v>
       </c>
       <c r="P19">
-        <v>0.0002243934468610964</v>
+        <v>0.002834679367869639</v>
       </c>
       <c r="Q19">
-        <v>0.001659900581333333</v>
+        <v>0.2689772641365555</v>
       </c>
       <c r="R19">
-        <v>0.014939105232</v>
+        <v>2.420795377229</v>
       </c>
       <c r="S19">
-        <v>2.788196571013795E-06</v>
+        <v>0.0004581684699875836</v>
       </c>
       <c r="T19">
-        <v>2.788196571013795E-06</v>
+        <v>0.0004581684699875835</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>9.899486</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H20">
-        <v>29.698458</v>
+        <v>30.115763</v>
       </c>
       <c r="I20">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J20">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.588395333333334</v>
+        <v>0.4704593333333333</v>
       </c>
       <c r="N20">
-        <v>19.765186</v>
+        <v>1.411378</v>
       </c>
       <c r="O20">
-        <v>0.6088932199877385</v>
+        <v>0.04977176886736147</v>
       </c>
       <c r="P20">
-        <v>0.6088932199877384</v>
+        <v>0.04977176886736145</v>
       </c>
       <c r="Q20">
-        <v>65.22172736479867</v>
+        <v>4.722747261268222</v>
       </c>
       <c r="R20">
-        <v>586.995546283188</v>
+        <v>42.504725351414</v>
       </c>
       <c r="S20">
-        <v>0.1095553544827693</v>
+        <v>0.00804459772382389</v>
       </c>
       <c r="T20">
-        <v>0.1095553544827693</v>
+        <v>0.008044597723823889</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>9.899486</v>
+        <v>10.03858766666667</v>
       </c>
       <c r="H21">
-        <v>29.698458</v>
+        <v>30.115763</v>
       </c>
       <c r="I21">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="J21">
-        <v>0.1799253972395612</v>
+        <v>0.1616297332180864</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>2.450022</v>
+        <v>0.04659033333333334</v>
       </c>
       <c r="N21">
-        <v>7.350066</v>
+        <v>0.139771</v>
       </c>
       <c r="O21">
-        <v>0.2264286991208885</v>
+        <v>0.004928977145994893</v>
       </c>
       <c r="P21">
-        <v>0.2264286991208884</v>
+        <v>0.004928977145994892</v>
       </c>
       <c r="Q21">
-        <v>24.253958488692</v>
+        <v>0.4677011455858889</v>
       </c>
       <c r="R21">
-        <v>218.285626398228</v>
+        <v>4.209310310273001</v>
       </c>
       <c r="S21">
-        <v>0.04074027363576294</v>
+        <v>0.0007966692611451993</v>
       </c>
       <c r="T21">
-        <v>0.04074027363576294</v>
+        <v>0.0007966692611451991</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>9.899486</v>
+        <v>1.327177333333333</v>
       </c>
       <c r="H22">
-        <v>29.698458</v>
+        <v>3.981532</v>
       </c>
       <c r="I22">
-        <v>0.1799253972395612</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="J22">
-        <v>0.1799253972395612</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.02679433333333334</v>
+        <v>6.458467</v>
       </c>
       <c r="N22">
-        <v>0.08038300000000001</v>
+        <v>19.375401</v>
       </c>
       <c r="O22">
-        <v>0.002476306759889555</v>
+        <v>0.6832669775810905</v>
       </c>
       <c r="P22">
-        <v>0.002476306759889555</v>
+        <v>0.6832669775810902</v>
       </c>
       <c r="Q22">
-        <v>0.2652501277126667</v>
+        <v>8.571531010481333</v>
       </c>
       <c r="R22">
-        <v>2.387251149414</v>
+        <v>77.143779094332</v>
       </c>
       <c r="S22">
-        <v>0.0004455504774601387</v>
+        <v>0.01460051005102639</v>
       </c>
       <c r="T22">
-        <v>0.0004455504774601388</v>
+        <v>0.01460051005102638</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>9.899486</v>
+        <v>1.327177333333333</v>
       </c>
       <c r="H23">
-        <v>29.698458</v>
+        <v>3.981532</v>
       </c>
       <c r="I23">
-        <v>0.1799253972395612</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="J23">
-        <v>0.1799253972395612</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,33 +1863,33 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.706050333333333</v>
+        <v>2.450022</v>
       </c>
       <c r="N23">
-        <v>5.118151</v>
+        <v>7.350066</v>
       </c>
       <c r="O23">
-        <v>0.157671546464246</v>
+        <v>0.2591975970376838</v>
       </c>
       <c r="P23">
-        <v>0.1576715464642459</v>
+        <v>0.2591975970376837</v>
       </c>
       <c r="Q23">
-        <v>16.88902139012867</v>
+        <v>3.251613664568</v>
       </c>
       <c r="R23">
-        <v>152.001192511158</v>
+        <v>29.264522981112</v>
       </c>
       <c r="S23">
-        <v>0.02836911563095538</v>
+        <v>0.005538709238002731</v>
       </c>
       <c r="T23">
-        <v>0.02836911563095538</v>
+        <v>0.005538709238002727</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>9.899486</v>
+        <v>1.327177333333333</v>
       </c>
       <c r="H24">
-        <v>29.698458</v>
+        <v>3.981532</v>
       </c>
       <c r="I24">
-        <v>0.1799253972395612</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="J24">
-        <v>0.1799253972395612</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1925,43 +1925,43 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.04659033333333334</v>
+        <v>0.02679433333333333</v>
       </c>
       <c r="N24">
-        <v>0.139771</v>
+        <v>0.080383</v>
       </c>
       <c r="O24">
-        <v>0.004305834220376484</v>
+        <v>0.00283467936786964</v>
       </c>
       <c r="P24">
-        <v>0.004305834220376484</v>
+        <v>0.002834679367869639</v>
       </c>
       <c r="Q24">
-        <v>0.4612203525686667</v>
+        <v>0.03556083186177778</v>
       </c>
       <c r="R24">
-        <v>4.150983173118</v>
+        <v>0.320047486756</v>
       </c>
       <c r="S24">
-        <v>0.000774728932548935</v>
+        <v>6.057334242690793E-05</v>
       </c>
       <c r="T24">
-        <v>0.0007747289325489351</v>
+        <v>6.057334242690791E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
         <v>3</v>
       </c>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>9.899486</v>
+        <v>1.327177333333333</v>
       </c>
       <c r="H25">
-        <v>29.698458</v>
+        <v>3.981532</v>
       </c>
       <c r="I25">
-        <v>0.1799253972395612</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="J25">
-        <v>0.1799253972395612</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.002428</v>
+        <v>0.4704593333333333</v>
       </c>
       <c r="N25">
-        <v>0.007284000000000001</v>
+        <v>1.411378</v>
       </c>
       <c r="O25">
-        <v>0.0002243934468610964</v>
+        <v>0.04977176886736147</v>
       </c>
       <c r="P25">
-        <v>0.0002243934468610964</v>
+        <v>0.04977176886736145</v>
       </c>
       <c r="Q25">
-        <v>0.024035952008</v>
+        <v>0.6243829634551111</v>
       </c>
       <c r="R25">
-        <v>0.216323568072</v>
+        <v>5.619446671096</v>
       </c>
       <c r="S25">
-        <v>4.037408006443714E-05</v>
+        <v>0.001063556758118066</v>
       </c>
       <c r="T25">
-        <v>4.037408006443714E-05</v>
+        <v>0.001063556758118065</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.6568320000000001</v>
+        <v>1.327177333333333</v>
       </c>
       <c r="H26">
-        <v>1.970496</v>
+        <v>3.981532</v>
       </c>
       <c r="I26">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="J26">
-        <v>0.01193807017047708</v>
+        <v>0.02136867510078605</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>6.588395333333334</v>
+        <v>0.04659033333333334</v>
       </c>
       <c r="N26">
-        <v>19.765186</v>
+        <v>0.139771</v>
       </c>
       <c r="O26">
-        <v>0.6088932199877385</v>
+        <v>0.004928977145994893</v>
       </c>
       <c r="P26">
-        <v>0.6088932199877384</v>
+        <v>0.004928977145994892</v>
       </c>
       <c r="Q26">
-        <v>4.327468883584</v>
+        <v>0.06183363435244445</v>
       </c>
       <c r="R26">
-        <v>38.94721995225601</v>
+        <v>0.5565027091720001</v>
       </c>
       <c r="S26">
-        <v>0.007269009986541359</v>
+        <v>0.0001053257112119646</v>
       </c>
       <c r="T26">
-        <v>0.007269009986541358</v>
+        <v>0.0001053257112119645</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.6568320000000001</v>
+        <v>0.630923</v>
       </c>
       <c r="H27">
-        <v>1.970496</v>
+        <v>1.892769</v>
       </c>
       <c r="I27">
-        <v>0.01193807017047708</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="J27">
-        <v>0.01193807017047708</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,33 +2111,33 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.450022</v>
+        <v>6.458467</v>
       </c>
       <c r="N27">
-        <v>7.350066</v>
+        <v>19.375401</v>
       </c>
       <c r="O27">
-        <v>0.2264286991208885</v>
+        <v>0.6832669775810905</v>
       </c>
       <c r="P27">
-        <v>0.2264286991208884</v>
+        <v>0.6832669775810902</v>
       </c>
       <c r="Q27">
-        <v>1.609252850304</v>
+        <v>4.074795375041</v>
       </c>
       <c r="R27">
-        <v>14.483275652736</v>
+        <v>36.673158375369</v>
       </c>
       <c r="S27">
-        <v>0.002703121698715008</v>
+        <v>0.00694089431122773</v>
       </c>
       <c r="T27">
-        <v>0.002703121698715008</v>
+        <v>0.006940894311227726</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.6568320000000001</v>
+        <v>0.630923</v>
       </c>
       <c r="H28">
-        <v>1.970496</v>
+        <v>1.892769</v>
       </c>
       <c r="I28">
-        <v>0.01193807017047708</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="J28">
-        <v>0.01193807017047708</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.02679433333333334</v>
+        <v>2.450022</v>
       </c>
       <c r="N28">
-        <v>0.08038300000000001</v>
+        <v>7.350066</v>
       </c>
       <c r="O28">
-        <v>0.002476306759889555</v>
+        <v>0.2591975970376838</v>
       </c>
       <c r="P28">
-        <v>0.002476306759889555</v>
+        <v>0.2591975970376837</v>
       </c>
       <c r="Q28">
-        <v>0.01759937555200001</v>
+        <v>1.545775230306</v>
       </c>
       <c r="R28">
-        <v>0.158394379968</v>
+        <v>13.911977072754</v>
       </c>
       <c r="S28">
-        <v>2.956232386318824E-05</v>
+        <v>0.00263303099050948</v>
       </c>
       <c r="T28">
-        <v>2.956232386318824E-05</v>
+        <v>0.002633030990509478</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,51 +2217,51 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.6568320000000001</v>
+        <v>0.630923</v>
       </c>
       <c r="H29">
-        <v>1.970496</v>
+        <v>1.892769</v>
       </c>
       <c r="I29">
-        <v>0.01193807017047708</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="J29">
-        <v>0.01193807017047708</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M29">
-        <v>1.706050333333333</v>
+        <v>0.02679433333333333</v>
       </c>
       <c r="N29">
-        <v>5.118151</v>
+        <v>0.080383</v>
       </c>
       <c r="O29">
-        <v>0.157671546464246</v>
+        <v>0.00283467936786964</v>
       </c>
       <c r="P29">
-        <v>0.1576715464642459</v>
+        <v>0.002834679367869639</v>
       </c>
       <c r="Q29">
-        <v>1.120588452544</v>
+        <v>0.01690516116966667</v>
       </c>
       <c r="R29">
-        <v>10.085296072896</v>
+        <v>0.152146450527</v>
       </c>
       <c r="S29">
-        <v>0.001882293985577806</v>
+        <v>2.879578633853403E-05</v>
       </c>
       <c r="T29">
-        <v>0.001882293985577806</v>
+        <v>2.879578633853402E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,61 +2279,61 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.6568320000000001</v>
+        <v>0.630923</v>
       </c>
       <c r="H30">
-        <v>1.970496</v>
+        <v>1.892769</v>
       </c>
       <c r="I30">
-        <v>0.01193807017047708</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="J30">
-        <v>0.01193807017047708</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.04659033333333334</v>
+        <v>0.4704593333333333</v>
       </c>
       <c r="N30">
-        <v>0.139771</v>
+        <v>1.411378</v>
       </c>
       <c r="O30">
-        <v>0.004305834220376484</v>
+        <v>0.04977176886736147</v>
       </c>
       <c r="P30">
-        <v>0.004305834220376484</v>
+        <v>0.04977176886736145</v>
       </c>
       <c r="Q30">
-        <v>0.03060202182400001</v>
+        <v>0.2968236139646667</v>
       </c>
       <c r="R30">
-        <v>0.2754181964160001</v>
+        <v>2.671412525682</v>
       </c>
       <c r="S30">
-        <v>5.140335106529594E-05</v>
+        <v>0.0005056011760062138</v>
       </c>
       <c r="T30">
-        <v>5.140335106529594E-05</v>
+        <v>0.0005056011760062136</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>24</v>
       </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
       <c r="E31">
         <v>3</v>
       </c>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.6568320000000001</v>
+        <v>0.630923</v>
       </c>
       <c r="H31">
-        <v>1.970496</v>
+        <v>1.892769</v>
       </c>
       <c r="I31">
-        <v>0.01193807017047708</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="J31">
-        <v>0.01193807017047708</v>
+        <v>0.01015839274978569</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -2359,400 +2359,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.002428</v>
+        <v>0.04659033333333334</v>
       </c>
       <c r="N31">
-        <v>0.007284000000000001</v>
+        <v>0.139771</v>
       </c>
       <c r="O31">
-        <v>0.0002243934468610964</v>
+        <v>0.004928977145994893</v>
       </c>
       <c r="P31">
-        <v>0.0002243934468610964</v>
+        <v>0.004928977145994892</v>
       </c>
       <c r="Q31">
-        <v>0.001594788096</v>
+        <v>0.02939491287766667</v>
       </c>
       <c r="R31">
-        <v>0.014353092864</v>
+        <v>0.264554215899</v>
       </c>
       <c r="S31">
-        <v>2.678824714422989E-06</v>
+        <v>5.007048570373389E-05</v>
       </c>
       <c r="T31">
-        <v>2.678824714422989E-06</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.4491346666666667</v>
-      </c>
-      <c r="H32">
-        <v>1.347404</v>
-      </c>
-      <c r="I32">
-        <v>0.00816312415756312</v>
-      </c>
-      <c r="J32">
-        <v>0.00816312415756312</v>
-      </c>
-      <c r="K32">
-        <v>3</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>6.588395333333334</v>
-      </c>
-      <c r="N32">
-        <v>19.765186</v>
-      </c>
-      <c r="O32">
-        <v>0.6088932199877385</v>
-      </c>
-      <c r="P32">
-        <v>0.6088932199877384</v>
-      </c>
-      <c r="Q32">
-        <v>2.959076741904889</v>
-      </c>
-      <c r="R32">
-        <v>26.631690677144</v>
-      </c>
-      <c r="S32">
-        <v>0.004970470953458303</v>
-      </c>
-      <c r="T32">
-        <v>0.004970470953458302</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.4491346666666667</v>
-      </c>
-      <c r="H33">
-        <v>1.347404</v>
-      </c>
-      <c r="I33">
-        <v>0.00816312415756312</v>
-      </c>
-      <c r="J33">
-        <v>0.00816312415756312</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>2.450022</v>
-      </c>
-      <c r="N33">
-        <v>7.350066</v>
-      </c>
-      <c r="O33">
-        <v>0.2264286991208885</v>
-      </c>
-      <c r="P33">
-        <v>0.2264286991208884</v>
-      </c>
-      <c r="Q33">
-        <v>1.100389814296</v>
-      </c>
-      <c r="R33">
-        <v>9.903508328664</v>
-      </c>
-      <c r="S33">
-        <v>0.001848365583759316</v>
-      </c>
-      <c r="T33">
-        <v>0.001848365583759316</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.4491346666666667</v>
-      </c>
-      <c r="H34">
-        <v>1.347404</v>
-      </c>
-      <c r="I34">
-        <v>0.00816312415756312</v>
-      </c>
-      <c r="J34">
-        <v>0.00816312415756312</v>
-      </c>
-      <c r="K34">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M34">
-        <v>0.02679433333333334</v>
-      </c>
-      <c r="N34">
-        <v>0.08038300000000001</v>
-      </c>
-      <c r="O34">
-        <v>0.002476306759889555</v>
-      </c>
-      <c r="P34">
-        <v>0.002476306759889555</v>
-      </c>
-      <c r="Q34">
-        <v>0.01203426397022222</v>
-      </c>
-      <c r="R34">
-        <v>0.108308375732</v>
-      </c>
-      <c r="S34">
-        <v>2.021439953319128E-05</v>
-      </c>
-      <c r="T34">
-        <v>2.021439953319128E-05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.4491346666666667</v>
-      </c>
-      <c r="H35">
-        <v>1.347404</v>
-      </c>
-      <c r="I35">
-        <v>0.00816312415756312</v>
-      </c>
-      <c r="J35">
-        <v>0.00816312415756312</v>
-      </c>
-      <c r="K35">
-        <v>3</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1.706050333333333</v>
-      </c>
-      <c r="N35">
-        <v>5.118151</v>
-      </c>
-      <c r="O35">
-        <v>0.157671546464246</v>
-      </c>
-      <c r="P35">
-        <v>0.1576715464642459</v>
-      </c>
-      <c r="Q35">
-        <v>0.7662463477782223</v>
-      </c>
-      <c r="R35">
-        <v>6.896217130004</v>
-      </c>
-      <c r="S35">
-        <v>0.001287092409902622</v>
-      </c>
-      <c r="T35">
-        <v>0.001287092409902622</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0.4491346666666667</v>
-      </c>
-      <c r="H36">
-        <v>1.347404</v>
-      </c>
-      <c r="I36">
-        <v>0.00816312415756312</v>
-      </c>
-      <c r="J36">
-        <v>0.00816312415756312</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M36">
-        <v>0.04659033333333334</v>
-      </c>
-      <c r="N36">
-        <v>0.139771</v>
-      </c>
-      <c r="O36">
-        <v>0.004305834220376484</v>
-      </c>
-      <c r="P36">
-        <v>0.004305834220376484</v>
-      </c>
-      <c r="Q36">
-        <v>0.02092533383155556</v>
-      </c>
-      <c r="R36">
-        <v>0.188328004484</v>
-      </c>
-      <c r="S36">
-        <v>3.514905934281724E-05</v>
-      </c>
-      <c r="T36">
-        <v>3.514905934281724E-05</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0.4491346666666667</v>
-      </c>
-      <c r="H37">
-        <v>1.347404</v>
-      </c>
-      <c r="I37">
-        <v>0.00816312415756312</v>
-      </c>
-      <c r="J37">
-        <v>0.00816312415756312</v>
-      </c>
-      <c r="K37">
-        <v>1</v>
-      </c>
-      <c r="L37">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M37">
-        <v>0.002428</v>
-      </c>
-      <c r="N37">
-        <v>0.007284000000000001</v>
-      </c>
-      <c r="O37">
-        <v>0.0002243934468610964</v>
-      </c>
-      <c r="P37">
-        <v>0.0002243934468610964</v>
-      </c>
-      <c r="Q37">
-        <v>0.001090498970666667</v>
-      </c>
-      <c r="R37">
-        <v>0.009814490736000001</v>
-      </c>
-      <c r="S37">
-        <v>1.831751566870673E-06</v>
-      </c>
-      <c r="T37">
-        <v>1.831751566870672E-06</v>
+        <v>5.007048570373386E-05</v>
       </c>
     </row>
   </sheetData>
